--- a/tesi_camilla/casi_MarioU/other/Concettuale_da_MarioU.xlsx
+++ b/tesi_camilla/casi_MarioU/other/Concettuale_da_MarioU.xlsx
@@ -8,169 +8,247 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/casi_MarioU/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE67DB-F3A4-DC44-BCF4-1C5E251DCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D14DE-09DF-1D42-AFDA-4826CAC8EB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Siracusa" sheetId="19" r:id="rId1"/>
-    <sheet name="No_heaters" sheetId="20" r:id="rId2"/>
+    <sheet name="Siracusa (2)" sheetId="21" r:id="rId2"/>
+    <sheet name="No_heaters" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">No_heaters!$AP$10:$AV$15,No_heaters!$Q$43:$AC$49,No_heaters!$BF$17,No_heaters!$BQ$10:$BW$15,No_heaters!$AE$77:$AN$77</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">No_heaters!$AP$10:$AV$15,No_heaters!$Q$43:$AC$49,No_heaters!$BF$17,No_heaters!$BQ$10:$BW$15,No_heaters!$AE$77:$AN$77</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Siracusa!$AT$10:$AZ$15,Siracusa!$Q$45:$AE$51,Siracusa!$BJ$17,Siracusa!$BU$10:$CA$15,Siracusa!$AG$79:$AR$79</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Siracusa (2)'!$AV$10:$BB$16,'Siracusa (2)'!$R$47:$AG$53,'Siracusa (2)'!$BL$18,'Siracusa (2)'!$BW$10:$CC$16,'Siracusa (2)'!$AI$81:$AT$81</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">No_heaters!$Q$43:$S$49</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">No_heaters!$Q$43:$S$49</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Siracusa!$Q$45:$S$51</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">No_heaters!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Siracusa (2)'!$R$47:$T$53</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">No_heaters!#REF!</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Siracusa!#REF!</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">No_heaters!$BQ$31:$BW$33</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Siracusa (2)'!#REF!</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">No_heaters!$BQ$31:$BW$33</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Siracusa!$BU$33:$CA$35</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">No_heaters!$BQ$35:$BV$36</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$35:$CC$37</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">No_heaters!$BQ$35:$BV$36</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">Siracusa!$BU$37:$BZ$38</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">No_heaters!$BQ$39:$BV$40</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$39:$CB$40</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">No_heaters!$BQ$39:$BV$40</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">Siracusa!$BU$41:$BZ$42</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">No_heaters!$BQ$42:$BW$43</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$43:$CB$44</definedName>
+    <definedName name="solver_lhs14" localSheetId="2" hidden="1">No_heaters!$BQ$42:$BW$43</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">Siracusa!$BU$44:$CA$45</definedName>
-    <definedName name="solver_lhs15" localSheetId="1" hidden="1">No_heaters!$BQ$45:$BW$46</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$46:$CC$47</definedName>
+    <definedName name="solver_lhs15" localSheetId="2" hidden="1">No_heaters!$BQ$45:$BW$46</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">Siracusa!$BU$47:$CA$48</definedName>
-    <definedName name="solver_lhs16" localSheetId="1" hidden="1">No_heaters!$BQ$48:$BV$48</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$49:$CC$50</definedName>
+    <definedName name="solver_lhs16" localSheetId="2" hidden="1">No_heaters!$BQ$48:$BV$48</definedName>
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">Siracusa!$BU$50:$BZ$50</definedName>
-    <definedName name="solver_lhs17" localSheetId="1" hidden="1">No_heaters!$BQ$50:$BV$50</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$52:$CB$52</definedName>
+    <definedName name="solver_lhs17" localSheetId="2" hidden="1">No_heaters!$BQ$50:$BV$50</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">Siracusa!$BU$52:$BZ$52</definedName>
-    <definedName name="solver_lhs18" localSheetId="1" hidden="1">No_heaters!$BQ$53:$BW$54</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$54:$CB$54</definedName>
+    <definedName name="solver_lhs18" localSheetId="2" hidden="1">No_heaters!$BQ$53:$BW$54</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">Siracusa!$BU$55:$CA$56</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">No_heaters!$V$43:$W$49</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$57:$CC$58</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">No_heaters!$V$43:$W$49</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Siracusa!$V$45:$W$51</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">No_heaters!$AA$43:$AC$49</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Siracusa (2)'!$W$47:$X$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">No_heaters!$AA$43:$AC$49</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Siracusa!$AA$45:$AE$51</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">No_heaters!$AE$77:$AN$77</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Siracusa (2)'!$AC$47:$AG$53</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">No_heaters!$AE$77:$AN$77</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Siracusa!$AG$79:$AR$79</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">No_heaters!$BF$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Siracusa (2)'!$AI$81:$AT$81</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">No_heaters!$BF$17</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Siracusa!$BJ$17</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">No_heaters!$BI$10:$BO$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Siracusa (2)'!$BL$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">No_heaters!$BI$10:$BO$15</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Siracusa!$BM$10:$BS$15</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">No_heaters!$BI$17:$BO$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Siracusa (2)'!$BO$10:$BU$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">No_heaters!$BI$17:$BO$26</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Siracusa!$BM$17:$BS$27</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">No_heaters!$BQ$10:$BW$15</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Siracusa (2)'!$BO$18:$BU$29</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">No_heaters!$BQ$10:$BW$15</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Siracusa!$BU$10:$CA$15</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">No_heaters!$BQ$17:$BW$29</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$10:$CC$16</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">No_heaters!$BQ$17:$BW$29</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Siracusa!$BU$17:$CA$31</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Siracusa (2)'!$BW$18:$CC$33</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">18</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">18</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">18</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">18</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">No_heaters!$L$11</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">No_heaters!$L$11</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Siracusa!$L$11</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Siracusa (2)'!$L$11</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel15" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel16" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel16" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">5</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs12" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs13" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs14" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs15" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs16" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs16" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs17" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs17" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs18" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs18" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">binary</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">binary</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">binary</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -213,6 +291,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={3C93A06E-0882-E149-9649-552AA01D71C0}</author>
+  </authors>
+  <commentList>
+    <comment ref="BW34" authorId="0" shapeId="0" xr:uid="{3C93A06E-0882-E149-9649-552AA01D71C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Su pyesm è ore x tech perchè non c’è un filtro per le 3 tech interessate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={280A1734-F682-644A-9098-AC125CD5F99B}</author>
   </authors>
   <commentList>
@@ -251,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="154">
   <si>
     <t>time_day</t>
   </si>
@@ -717,6 +813,21 @@
   <si>
     <t>Gas Boiler</t>
   </si>
+  <si>
+    <t>Hot water</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>HW storage discharge</t>
+  </si>
+  <si>
+    <t>x_ch-x_disc &lt; max_HW</t>
+  </si>
+  <si>
+    <t>x_ch-x_disc &gt; min_HW</t>
+  </si>
 </sst>
 </file>
 
@@ -1019,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1084,6 +1195,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,6 +1549,14 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BW34" dT="2024-07-10T08:54:39.78" personId="{78B3468B-D9B6-EA45-B5B8-0247D1E1A105}" id="{3C93A06E-0882-E149-9649-552AA01D71C0}">
+    <text>Su pyesm è ore x tech perchè non c’è un filtro per le 3 tech interessate</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="BQ30" dT="2024-07-10T08:54:39.78" personId="{78B3468B-D9B6-EA45-B5B8-0247D1E1A105}" id="{280A1734-F682-644A-9098-AC125CD5F99B}">
     <text>Su pyesm è ore x tech perchè non c’è un filtro per le 3 tech interessate</text>
   </threadedComment>
@@ -9653,10 +9773,7973 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0BBEEA-A270-FB4D-A8DC-BB68CDFBFD6A}">
+  <dimension ref="A1:CH94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="75" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="BW43" sqref="BW43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="27"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" customWidth="1"/>
+    <col min="44" max="44" width="16" customWidth="1"/>
+    <col min="47" max="47" width="4.83203125" customWidth="1"/>
+    <col min="55" max="55" width="4.5" customWidth="1"/>
+    <col min="57" max="57" width="15.5" customWidth="1"/>
+    <col min="66" max="66" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="AV1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BO1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="AV2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BO2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="AI4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="39"/>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+      <c r="BU8" s="7"/>
+      <c r="BV8" s="7"/>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="7"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="7"/>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="7"/>
+      <c r="CC8" s="7"/>
+      <c r="CD8" s="7"/>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="60">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="X10" s="60">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y10" s="61">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="54">
+        <f>1/0.8</f>
+        <v>1.25</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="22">
+        <v>15.162723</v>
+      </c>
+      <c r="AW10" s="22">
+        <v>9.2777778000000009</v>
+      </c>
+      <c r="AX10" s="22">
+        <v>15.166667</v>
+      </c>
+      <c r="AY10" s="22">
+        <v>13.7</v>
+      </c>
+      <c r="AZ10" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BA10" s="22">
+        <v>13.9</v>
+      </c>
+      <c r="BB10" s="22">
+        <v>12.4</v>
+      </c>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BE10" s="14">
+        <v>8</v>
+      </c>
+      <c r="BF10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BG10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BH10" s="14">
+        <v>8</v>
+      </c>
+      <c r="BI10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BJ10" s="14">
+        <v>12</v>
+      </c>
+      <c r="BL10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="34" cm="1">
+        <f t="array" ref="BM10:BM16">1+(BL10:BL16*BL18)</f>
+        <v>1</v>
+      </c>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="17" t="e" cm="1">
+        <f t="array" ref="BO10:BU16">AV10:BB16-MMULT(R10:AG16,TRANSPOSE(R47:AG53))-BD10:BJ16*_xlfn.ANCHORARRAY(BM10)-BW10:CC16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP10" s="18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ10" s="18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR10" s="18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS10" s="18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT10" s="19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU10" s="19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="31" cm="1">
+        <f t="array" ref="J11">SUM(MMULT(MMULT(I61:K61,TRANSPOSE(I65:K71)),_xlfn.ANCHORARRAY(R55)))+SUM(_xlfn.ANCHORARRAY(AI94))</f>
+        <v>1755.883886545</v>
+      </c>
+      <c r="K11" s="31" cm="1">
+        <f t="array" ref="K11">MMULT(AI36:AT36,TRANSPOSE(AI81:AT81))+BL18*BL20</f>
+        <v>640</v>
+      </c>
+      <c r="L11" s="32">
+        <f>J11*SUM(J79:J88)+K11</f>
+        <v>15304.000372500705</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="22">
+        <v>7</v>
+      </c>
+      <c r="AW11" s="22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX11" s="22">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="22">
+        <v>2</v>
+      </c>
+      <c r="BB11" s="22">
+        <v>2</v>
+      </c>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ11" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP11" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ11" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR11" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS11" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT11" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU11" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="22">
+        <v>5</v>
+      </c>
+      <c r="AW12" s="22">
+        <v>3</v>
+      </c>
+      <c r="AX12" s="22">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="14">
+        <v>5</v>
+      </c>
+      <c r="BE12" s="14">
+        <v>3</v>
+      </c>
+      <c r="BF12" s="14">
+        <v>5</v>
+      </c>
+      <c r="BG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BM12" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP12" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ12" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR12" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS12" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT12" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU12" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP13" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ13" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR13" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS13" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT13" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU13" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="22"/>
+      <c r="BX13" s="22"/>
+      <c r="BY13" s="22"/>
+      <c r="BZ13" s="22"/>
+      <c r="CA13" s="22"/>
+      <c r="CB13" s="22"/>
+      <c r="CC13" s="22"/>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="14">
+        <v>-0.05</v>
+      </c>
+      <c r="BM14" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP14" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ14" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR14" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS14" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT14" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU14" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="56">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AW15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="22">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AZ15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="22">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="22">
+        <v>2</v>
+      </c>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BE15" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BH15" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ15" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP15" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ15" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR15" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS15" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT15" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU15" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <f>1/0.95</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="54">
+        <f>1/0.4/10.944</f>
+        <v>0.22843567251461985</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="22">
+        <v>0.11421784</v>
+      </c>
+      <c r="AW16" s="22">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="AX16" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AY16" s="22">
+        <v>0.11421784</v>
+      </c>
+      <c r="AZ16" s="22">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="BA16" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="BB16" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="34">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP16" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ16" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR16" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS16" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT16" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU16" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV16" s="13"/>
+      <c r="BW16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN17" s="13"/>
+      <c r="BO17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP17" s="13"/>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13"/>
+      <c r="BS17" s="13"/>
+      <c r="BT17" s="13"/>
+      <c r="BU17" s="13"/>
+      <c r="BV17" s="13"/>
+      <c r="BW17" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AI18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="17" cm="1">
+        <f t="array" ref="BO18:BU24">TRANSPOSE(MMULT(R47:AG53,J18:P33))-AV10:BB16</f>
+        <v>-9.9999999392252903E-8</v>
+      </c>
+      <c r="BP18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="18">
+        <v>-2.9999999995311555E-7</v>
+      </c>
+      <c r="BR18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="19">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="19">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="13"/>
+      <c r="BW18" s="17" cm="1">
+        <f t="array" ref="BW18:CC27">TRANSPOSE(AI63:AR69-AI71:AR77)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="BX18" s="18">
+        <v>-1.8</v>
+      </c>
+      <c r="BY18" s="18">
+        <v>-0.9</v>
+      </c>
+      <c r="BZ18" s="18">
+        <v>-1.8</v>
+      </c>
+      <c r="CA18" s="18">
+        <v>-2.7</v>
+      </c>
+      <c r="CB18" s="19">
+        <v>-1.8</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AI19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="20">
+        <v>-1.0141974999999999</v>
+      </c>
+      <c r="BP19" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="13">
+        <v>-2</v>
+      </c>
+      <c r="BR19" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="13"/>
+      <c r="BW19" s="20">
+        <v>-7.2293896000000002</v>
+      </c>
+      <c r="BX19" s="13">
+        <v>-5.7777778</v>
+      </c>
+      <c r="BY19" s="13">
+        <v>-10.700000000000001</v>
+      </c>
+      <c r="BZ19" s="13">
+        <v>-10.200000000000001</v>
+      </c>
+      <c r="CA19" s="13">
+        <v>-3.8</v>
+      </c>
+      <c r="CB19" s="21">
+        <v>-10.4</v>
+      </c>
+      <c r="CC19">
+        <v>-10.700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AI20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13">
+        <v>10000</v>
+      </c>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="13"/>
+      <c r="BW20" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="21">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AI21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="20">
+        <v>1.0141975000000001</v>
+      </c>
+      <c r="BP21" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BR21" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="13"/>
+      <c r="BW21" s="20">
+        <v>-5.9858025000000001</v>
+      </c>
+      <c r="BX21" s="13">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="BY21" s="13">
+        <v>-6</v>
+      </c>
+      <c r="BZ21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="CA21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="CB21" s="21">
+        <v>-2</v>
+      </c>
+      <c r="CC21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AI22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="13"/>
+      <c r="BW22" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="21">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AI23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="6"/>
+      <c r="BO23" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="13"/>
+      <c r="BW23" s="20">
+        <v>-5</v>
+      </c>
+      <c r="BX23" s="13">
+        <v>-3</v>
+      </c>
+      <c r="BY23" s="13">
+        <v>-5</v>
+      </c>
+      <c r="BZ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AI24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="6"/>
+      <c r="BO24" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="13"/>
+      <c r="BW24" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="21">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AI25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="6"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="13"/>
+      <c r="BQ25" s="13"/>
+      <c r="BR25" s="13"/>
+      <c r="BS25" s="13"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="13"/>
+      <c r="BW25" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="13">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="21">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AI26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="6"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13"/>
+      <c r="BS26" s="13"/>
+      <c r="BT26" s="21"/>
+      <c r="BU26" s="21"/>
+      <c r="BV26" s="13"/>
+      <c r="BW26" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="BX26" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY26" s="13">
+        <v>4</v>
+      </c>
+      <c r="BZ26" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="CA26" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB26" s="21">
+        <v>4</v>
+      </c>
+      <c r="CC26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AI27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="6"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="13"/>
+      <c r="BQ27" s="13"/>
+      <c r="BR27" s="13"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="21"/>
+      <c r="BU27" s="21"/>
+      <c r="BV27" s="13"/>
+      <c r="BW27" s="20">
+        <v>-0.11421784</v>
+      </c>
+      <c r="BX27" s="13">
+        <v>-0.22843567000000001</v>
+      </c>
+      <c r="BY27" s="13">
+        <v>-0.45687135000000001</v>
+      </c>
+      <c r="BZ27" s="13">
+        <v>-0.11421784</v>
+      </c>
+      <c r="CA27" s="13">
+        <v>-0.22843567000000001</v>
+      </c>
+      <c r="CB27" s="21">
+        <v>-0.45687135000000001</v>
+      </c>
+      <c r="CC27">
+        <v>-0.45687135000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AI28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="14"/>
+      <c r="BN28" s="6"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="13"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="13"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="13"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="13"/>
+      <c r="BY28" s="13"/>
+      <c r="BZ28" s="13"/>
+      <c r="CA28" s="13"/>
+      <c r="CB28" s="21"/>
+    </row>
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="13"/>
+      <c r="AI29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="6"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="13"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="13"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="13"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="13"/>
+      <c r="BY29" s="13"/>
+      <c r="BZ29" s="13"/>
+      <c r="CA29" s="13"/>
+      <c r="CB29" s="21"/>
+    </row>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="13"/>
+      <c r="AI30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="13"/>
+      <c r="BP30" s="13"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="13"/>
+      <c r="BS30" s="13"/>
+      <c r="BT30" s="13"/>
+      <c r="BU30" s="13"/>
+      <c r="BV30" s="13"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="13"/>
+      <c r="BY30" s="13"/>
+      <c r="BZ30" s="13"/>
+      <c r="CA30" s="13"/>
+      <c r="CB30" s="21"/>
+    </row>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>1</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AI31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="6"/>
+      <c r="BV31" s="13"/>
+      <c r="BW31" s="26"/>
+      <c r="CB31" s="27"/>
+    </row>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AI32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="6"/>
+      <c r="BV32" s="13"/>
+      <c r="BW32" s="26"/>
+      <c r="CB32" s="27"/>
+    </row>
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AI33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="6"/>
+      <c r="BV33" s="13"/>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="13"/>
+      <c r="BY33" s="13"/>
+      <c r="BZ33" s="13"/>
+      <c r="CA33" s="13"/>
+      <c r="CB33" s="21"/>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="BW34" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="14">
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="T35" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="X35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="BV35" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW35" s="13" t="e" cm="1">
+        <f t="array" ref="BW35">TRANSPOSE(MMULT(R47:AG53,BD18:BE33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BX35" s="13"/>
+      <c r="BY35" s="13"/>
+      <c r="BZ35" s="13"/>
+      <c r="CA35" s="13"/>
+      <c r="CB35" s="13"/>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="AH36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI36" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AJ36" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK36" s="16">
+        <v>1000</v>
+      </c>
+      <c r="AL36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="AM36" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AN36" s="52">
+        <v>3000</v>
+      </c>
+      <c r="AO36" s="52">
+        <v>7000</v>
+      </c>
+      <c r="AP36" s="16">
+        <v>250</v>
+      </c>
+      <c r="AQ36" s="16">
+        <v>150</v>
+      </c>
+      <c r="AR36" s="16">
+        <v>60</v>
+      </c>
+      <c r="AS36" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AT36" s="16">
+        <v>200</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW36" s="13"/>
+      <c r="BX36" s="13"/>
+      <c r="BY36" s="13"/>
+      <c r="BZ36" s="13"/>
+      <c r="CA36" s="13"/>
+      <c r="CB36" s="13"/>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="AH37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="52">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="53">
+        <v>1</v>
+      </c>
+      <c r="BV37" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW37" s="13"/>
+      <c r="BX37" s="13"/>
+      <c r="BY37" s="13"/>
+      <c r="BZ37" s="13"/>
+      <c r="CA37" s="13"/>
+      <c r="CB37" s="13"/>
+    </row>
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BW38" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BX38" s="13"/>
+      <c r="BY38" s="13"/>
+      <c r="BZ38" s="13"/>
+      <c r="CA38" s="13"/>
+      <c r="CB38" s="13"/>
+    </row>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AJ39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BV39" s="13"/>
+      <c r="BW39" s="13" cm="1">
+        <f t="array" ref="BW39:CC39">TRANSPOSE(AL47:AL52-(AA47:AA53-AB47:AB53))</f>
+        <v>0.99</v>
+      </c>
+      <c r="BX39" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="BY39" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="BZ39" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="CA39" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="CB39" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="CC39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AJ40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="13"/>
+      <c r="BS40" s="13"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
+      <c r="BW40" s="13"/>
+      <c r="BX40" s="13"/>
+      <c r="BY40" s="13"/>
+      <c r="BZ40" s="13"/>
+      <c r="CA40" s="13"/>
+      <c r="CB40" s="13"/>
+    </row>
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AJ41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="13"/>
+      <c r="BP41" s="13"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="13"/>
+      <c r="BS41" s="13"/>
+      <c r="BT41" s="13"/>
+      <c r="BU41" s="13"/>
+      <c r="BW41" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AJ42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="13"/>
+      <c r="BP42" s="13"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="13"/>
+      <c r="BS42" s="13"/>
+      <c r="BT42" s="13"/>
+      <c r="BU42" s="13"/>
+      <c r="BW42" s="13" cm="1">
+        <f t="array" ref="BW42:CC42">TRANSPOSE((AA47:AA53-AB47:AB53)-AJ47:AJ52)</f>
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+      <c r="BY42">
+        <v>0</v>
+      </c>
+      <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
+        <v>0</v>
+      </c>
+      <c r="CB42">
+        <v>0</v>
+      </c>
+      <c r="CC42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AJ43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="13"/>
+      <c r="BP43" s="13"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="13"/>
+      <c r="BS43" s="13"/>
+      <c r="BT43" s="13"/>
+      <c r="BU43" s="13"/>
+    </row>
+    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AJ44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="13"/>
+      <c r="BA44" s="13"/>
+      <c r="BP44" s="13"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="13"/>
+      <c r="BS44" s="13"/>
+      <c r="BT44" s="13"/>
+      <c r="BU44" s="13"/>
+    </row>
+    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="14">
+        <v>1</v>
+      </c>
+      <c r="BP45" s="13"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="13"/>
+      <c r="BS45" s="13"/>
+      <c r="BT45" s="13"/>
+      <c r="BU45" s="13"/>
+    </row>
+    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK46" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM46" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ46" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BP46" s="13"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="13"/>
+      <c r="BS46" s="13"/>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="13"/>
+    </row>
+    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="S47" s="22">
+        <v>8.9293896000000004</v>
+      </c>
+      <c r="T47" s="22">
+        <v>0</v>
+      </c>
+      <c r="U47" s="22">
+        <v>5.3333332999999996</v>
+      </c>
+      <c r="V47" s="22">
+        <v>0</v>
+      </c>
+      <c r="W47" s="22">
+        <v>5.9858025000000001</v>
+      </c>
+      <c r="X47" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="22">
+        <v>1.0141975000000001</v>
+      </c>
+      <c r="AB47" s="22">
+        <v>1.0141975000000001</v>
+      </c>
+      <c r="AC47" s="22">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AG47" s="22">
+        <v>0.11421784</v>
+      </c>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL47" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM47" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN47" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO47" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BP47" s="13"/>
+      <c r="BQ47" s="13"/>
+      <c r="BR47" s="13"/>
+      <c r="BS47" s="13"/>
+      <c r="BT47" s="13"/>
+      <c r="BU47" s="13"/>
+    </row>
+    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="S48" s="22">
+        <v>7.4777778000000001</v>
+      </c>
+      <c r="T48" s="22">
+        <v>0</v>
+      </c>
+      <c r="U48" s="22">
+        <v>0</v>
+      </c>
+      <c r="V48" s="22">
+        <v>0</v>
+      </c>
+      <c r="W48" s="22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X48" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="22">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="22">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL48" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO48" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP48" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BP48" s="13"/>
+      <c r="BQ48" s="13"/>
+      <c r="BR48" s="13"/>
+      <c r="BS48" s="13"/>
+      <c r="BT48" s="13"/>
+      <c r="BU48" s="13"/>
+    </row>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="S49" s="22">
+        <v>12.4</v>
+      </c>
+      <c r="T49" s="22">
+        <v>0</v>
+      </c>
+      <c r="U49" s="22">
+        <v>1.8666666999999999</v>
+      </c>
+      <c r="V49" s="22">
+        <v>0</v>
+      </c>
+      <c r="W49" s="22">
+        <v>6</v>
+      </c>
+      <c r="X49" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="22">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="22">
+        <v>2</v>
+      </c>
+      <c r="AG49" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL49" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO49" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP49" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS49" s="13"/>
+      <c r="AU49" s="13"/>
+      <c r="AZ49" s="13"/>
+      <c r="BA49" s="13"/>
+    </row>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="S50" s="22">
+        <v>11.9</v>
+      </c>
+      <c r="T50" s="22">
+        <v>0</v>
+      </c>
+      <c r="U50" s="22">
+        <v>0</v>
+      </c>
+      <c r="V50" s="22">
+        <v>0</v>
+      </c>
+      <c r="W50" s="22">
+        <v>0</v>
+      </c>
+      <c r="X50" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AG50" s="22">
+        <v>0.11421784</v>
+      </c>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL50" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM50" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN50" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO50" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP50" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS50" s="13"/>
+      <c r="AU50" s="13"/>
+      <c r="AZ50" s="13"/>
+      <c r="BA50" s="13"/>
+    </row>
+    <row r="51" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="22">
+        <v>2.7</v>
+      </c>
+      <c r="S51" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="T51" s="22">
+        <v>0</v>
+      </c>
+      <c r="U51" s="22">
+        <v>0</v>
+      </c>
+      <c r="V51" s="22">
+        <v>0</v>
+      </c>
+      <c r="W51" s="22">
+        <v>0</v>
+      </c>
+      <c r="X51" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="22">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL51" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO51" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP51" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS51" s="13"/>
+      <c r="AU51" s="13"/>
+      <c r="AZ51" s="13"/>
+      <c r="BA51" s="13"/>
+    </row>
+    <row r="52" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="S52" s="22">
+        <v>12.1</v>
+      </c>
+      <c r="T52" s="22">
+        <v>0</v>
+      </c>
+      <c r="U52" s="22">
+        <v>0</v>
+      </c>
+      <c r="V52" s="22">
+        <v>0</v>
+      </c>
+      <c r="W52" s="22">
+        <v>0</v>
+      </c>
+      <c r="X52" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="22">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AL52" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="AM52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AN52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AO52" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AP52" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="AS52" s="13"/>
+      <c r="AU52" s="13"/>
+      <c r="AZ52" s="13"/>
+      <c r="BA52" s="13"/>
+    </row>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="22">
+        <v>0</v>
+      </c>
+      <c r="S53" s="22">
+        <v>12.4</v>
+      </c>
+      <c r="T53" s="22">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22">
+        <v>0</v>
+      </c>
+      <c r="V53" s="22">
+        <v>0</v>
+      </c>
+      <c r="W53" s="22">
+        <v>0</v>
+      </c>
+      <c r="X53" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="22">
+        <v>2</v>
+      </c>
+      <c r="AG53" s="22">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AH53" s="13"/>
+      <c r="AO53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="14">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="R54" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AI54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" s="33" cm="1">
+        <f t="array" ref="R55:AG61">MMULT(R47:AG53,_xlfn.MUNIT(16)*R35:AG35)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="33">
+        <v>1.3394084399999999</v>
+      </c>
+      <c r="T55" s="33">
+        <v>0</v>
+      </c>
+      <c r="U55" s="33">
+        <v>0</v>
+      </c>
+      <c r="V55" s="33">
+        <v>0</v>
+      </c>
+      <c r="W55" s="33">
+        <v>0</v>
+      </c>
+      <c r="X55" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="33">
+        <v>6.2819812000000003E-2</v>
+      </c>
+      <c r="AI55" cm="1">
+        <f t="array" ref="AI55:AJ60">AI47:AJ52*AS37:AT37</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55" cm="1">
+        <f t="array" ref="AK55:AL60">AK47:AL52*AS37:AT37</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL55">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R56" s="33">
+        <v>0</v>
+      </c>
+      <c r="S56" s="33">
+        <v>1.12166667</v>
+      </c>
+      <c r="T56" s="33">
+        <v>0</v>
+      </c>
+      <c r="U56" s="33">
+        <v>0</v>
+      </c>
+      <c r="V56" s="33">
+        <v>0</v>
+      </c>
+      <c r="W56" s="33">
+        <v>0</v>
+      </c>
+      <c r="X56" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="33">
+        <v>0.12563961850000002</v>
+      </c>
+      <c r="AI56">
+        <v>0.1</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0.9</v>
+      </c>
+      <c r="AL56">
+        <v>0.99</v>
+      </c>
+      <c r="BW56" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" s="33">
+        <v>0</v>
+      </c>
+      <c r="S57" s="33">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="T57" s="33">
+        <v>0</v>
+      </c>
+      <c r="U57" s="33">
+        <v>0</v>
+      </c>
+      <c r="V57" s="33">
+        <v>0</v>
+      </c>
+      <c r="W57" s="33">
+        <v>0</v>
+      </c>
+      <c r="X57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="33">
+        <v>0.2512792425</v>
+      </c>
+      <c r="AI57">
+        <v>0.1</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0.9</v>
+      </c>
+      <c r="AL57">
+        <v>0.99</v>
+      </c>
+      <c r="BH57" s="13"/>
+      <c r="BW57" s="36" cm="1">
+        <f t="array" ref="BW57:CC58">TRANSPOSE(_xlfn.ANCHORARRAY(W71)-W47:X53)</f>
+        <v>-5.9858025000000001</v>
+      </c>
+      <c r="BX57">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="BY57">
+        <v>-6</v>
+      </c>
+      <c r="BZ57">
+        <v>0</v>
+      </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+      <c r="CC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="33">
+        <v>0</v>
+      </c>
+      <c r="S58" s="33">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="T58" s="33">
+        <v>0</v>
+      </c>
+      <c r="U58" s="33">
+        <v>0</v>
+      </c>
+      <c r="V58" s="33">
+        <v>0</v>
+      </c>
+      <c r="W58" s="33">
+        <v>0</v>
+      </c>
+      <c r="X58" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="33">
+        <v>6.2819812000000003E-2</v>
+      </c>
+      <c r="AI58">
+        <v>0.1</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0.9</v>
+      </c>
+      <c r="AL58">
+        <v>0.99</v>
+      </c>
+      <c r="BH58" s="13"/>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+      <c r="BY58">
+        <v>0</v>
+      </c>
+      <c r="BZ58">
+        <v>-1</v>
+      </c>
+      <c r="CA58">
+        <v>-1</v>
+      </c>
+      <c r="CB58">
+        <v>-2</v>
+      </c>
+      <c r="CC58">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="33">
+        <v>0</v>
+      </c>
+      <c r="S59" s="33">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T59" s="33">
+        <v>0</v>
+      </c>
+      <c r="U59" s="33">
+        <v>0</v>
+      </c>
+      <c r="V59" s="33">
+        <v>0</v>
+      </c>
+      <c r="W59" s="33">
+        <v>0</v>
+      </c>
+      <c r="X59" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="33">
+        <v>0.12563961850000002</v>
+      </c>
+      <c r="AI59">
+        <v>0.1</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0.9</v>
+      </c>
+      <c r="AL59">
+        <v>0.99</v>
+      </c>
+      <c r="BH59" s="13"/>
+    </row>
+    <row r="60" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="10"/>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="33">
+        <v>0</v>
+      </c>
+      <c r="S60" s="33">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="T60" s="33">
+        <v>0</v>
+      </c>
+      <c r="U60" s="33">
+        <v>0</v>
+      </c>
+      <c r="V60" s="33">
+        <v>0</v>
+      </c>
+      <c r="W60" s="33">
+        <v>0</v>
+      </c>
+      <c r="X60" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="33">
+        <v>0.2512792425</v>
+      </c>
+      <c r="AI60">
+        <v>0.1</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0.9</v>
+      </c>
+      <c r="AL60">
+        <v>0.99</v>
+      </c>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="13"/>
+      <c r="BH60" s="13"/>
+      <c r="BW60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="14">
+        <v>190</v>
+      </c>
+      <c r="J61" s="49">
+        <f>365-I61</f>
+        <v>175</v>
+      </c>
+      <c r="K61" s="49">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0.2512792425</v>
+      </c>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="BH61" s="13"/>
+      <c r="BV61" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW61" s="13" cm="1">
+        <f t="array" ref="BW61:CH61">AI91:AT91*10000-_xlfn.ANCHORARRAY(AI85)</f>
+        <v>0</v>
+      </c>
+      <c r="BX61">
+        <v>-1.7</v>
+      </c>
+      <c r="BY61">
+        <v>0</v>
+      </c>
+      <c r="BZ61">
+        <v>0</v>
+      </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
+      <c r="CC61">
+        <v>0</v>
+      </c>
+      <c r="CD61">
+        <v>0</v>
+      </c>
+      <c r="CE61">
+        <v>-6</v>
+      </c>
+      <c r="CF61">
+        <v>0</v>
+      </c>
+      <c r="CG61">
+        <v>-1</v>
+      </c>
+      <c r="CH61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="AI62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH62" s="13"/>
+      <c r="BV62" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW62" s="13" cm="1">
+        <f t="array" ref="BW62:CH62">_xlfn.ANCHORARRAY(AI85)-AI91:AT91</f>
+        <v>0</v>
+      </c>
+      <c r="BX62">
+        <v>1.7</v>
+      </c>
+      <c r="BY62">
+        <v>0</v>
+      </c>
+      <c r="BZ62">
+        <v>0</v>
+      </c>
+      <c r="CA62">
+        <v>0</v>
+      </c>
+      <c r="CB62">
+        <v>0</v>
+      </c>
+      <c r="CC62">
+        <v>0</v>
+      </c>
+      <c r="CD62">
+        <v>0</v>
+      </c>
+      <c r="CE62">
+        <v>6</v>
+      </c>
+      <c r="CF62">
+        <v>0</v>
+      </c>
+      <c r="CG62">
+        <v>1</v>
+      </c>
+      <c r="CH62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="W63" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="X63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AI63" s="33" cm="1">
+        <f t="array" ref="AI63:AR69">MMULT(AI39:AR45,_xlfn.MUNIT(10)*AI85:AR85)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR63" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="10"/>
+      <c r="I64" t="s">
+        <v>111</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="W64" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="X64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AI64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR64" s="34">
+        <v>0</v>
+      </c>
+      <c r="BV64" s="13"/>
+      <c r="BW64" s="13"/>
+    </row>
+    <row r="65" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="12">
+        <v>1</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="W65" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="X65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AI65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR65" s="34">
+        <v>0</v>
+      </c>
+      <c r="BO65" s="11"/>
+      <c r="BV65" s="13"/>
+      <c r="BW65" s="13"/>
+    </row>
+    <row r="66" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="12">
+        <v>1</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="W66" s="14">
+        <v>0</v>
+      </c>
+      <c r="X66" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AI66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR66" s="34">
+        <v>0</v>
+      </c>
+      <c r="BV66" s="13"/>
+      <c r="BW66" s="13"/>
+    </row>
+    <row r="67" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="W67" s="14">
+        <v>0</v>
+      </c>
+      <c r="X67" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AI67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR67" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="13"/>
+      <c r="BJ67" s="13"/>
+      <c r="BK67" s="13"/>
+      <c r="BL67" s="13"/>
+      <c r="BN67" s="13"/>
+      <c r="BO67" s="13"/>
+      <c r="BV67" s="13"/>
+      <c r="BW67" s="13"/>
+    </row>
+    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68" s="12">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="W68" s="14">
+        <v>0</v>
+      </c>
+      <c r="X68" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AI68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR68" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI68" s="13"/>
+      <c r="BJ68" s="13"/>
+      <c r="BK68" s="13"/>
+      <c r="BL68" s="13"/>
+      <c r="BN68" s="13"/>
+      <c r="BO68" s="13"/>
+      <c r="BV68" s="13"/>
+      <c r="BW68" s="13"/>
+    </row>
+    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="W69" s="14">
+        <v>0</v>
+      </c>
+      <c r="X69" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AI69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR69" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI69" s="13"/>
+      <c r="BJ69" s="13"/>
+      <c r="BK69" s="13"/>
+      <c r="BL69" s="13"/>
+      <c r="BN69" s="13"/>
+      <c r="BO69" s="13"/>
+      <c r="BV69" s="13"/>
+      <c r="BW69" s="13"/>
+    </row>
+    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+      <c r="K70" s="12">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO70" s="13"/>
+      <c r="BV70" s="13"/>
+      <c r="BW70" s="13"/>
+    </row>
+    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="12">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="W71" s="51" cm="1">
+        <f t="array" ref="W71:X77">W63:X69*W85:X85</f>
+        <v>0</v>
+      </c>
+      <c r="X71" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AI71" s="40" cm="1">
+        <f t="array" ref="AI71:AT77">MMULT(R47:AG53,AI18:AT33)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AJ71" s="24">
+        <v>8.9293896000000004</v>
+      </c>
+      <c r="AK71" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="24">
+        <v>5.9858025000000001</v>
+      </c>
+      <c r="AM71" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="24">
+        <v>5</v>
+      </c>
+      <c r="AO71" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AR71" s="24">
+        <v>0.11421784</v>
+      </c>
+      <c r="AS71" s="24">
+        <v>5.3333332999999996</v>
+      </c>
+      <c r="AT71" s="25">
+        <v>2.0283950000000002</v>
+      </c>
+      <c r="BP71" s="13"/>
+      <c r="BQ71" s="13"/>
+      <c r="BR71" s="13"/>
+      <c r="BS71" s="13"/>
+      <c r="BT71" s="13"/>
+      <c r="BU71" s="13"/>
+      <c r="BV71" s="13"/>
+      <c r="BW71" s="13"/>
+    </row>
+    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="W72" s="34">
+        <v>0</v>
+      </c>
+      <c r="X72" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AI72" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>7.4777778000000001</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="27">
+        <v>0</v>
+      </c>
+      <c r="BP72" s="13"/>
+      <c r="BQ72" s="13"/>
+      <c r="BR72" s="13"/>
+      <c r="BS72" s="13"/>
+      <c r="BT72" s="13"/>
+      <c r="BU72" s="13"/>
+      <c r="BV72" s="13"/>
+      <c r="BW72" s="13"/>
+    </row>
+    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="W73" s="34">
+        <v>0</v>
+      </c>
+      <c r="X73" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AI73" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AJ73">
+        <v>12.4</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>6</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>5</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AS73">
+        <v>1.8666666999999999</v>
+      </c>
+      <c r="AT73" s="27">
+        <v>4</v>
+      </c>
+      <c r="BP73" s="13"/>
+      <c r="BQ73" s="13"/>
+      <c r="BR73" s="13"/>
+      <c r="BS73" s="13"/>
+      <c r="BT73" s="13"/>
+      <c r="BU73" s="13"/>
+      <c r="BV73" s="13"/>
+      <c r="BW73" s="13"/>
+    </row>
+    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="W74" s="34">
+        <v>0</v>
+      </c>
+      <c r="X74" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AI74" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>11.9</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0.5</v>
+      </c>
+      <c r="AR74">
+        <v>0.11421784</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="27">
+        <v>0</v>
+      </c>
+      <c r="BP74" s="13"/>
+      <c r="BQ74" s="13"/>
+      <c r="BR74" s="13"/>
+      <c r="BS74" s="13"/>
+      <c r="BT74" s="13"/>
+      <c r="BU74" s="13"/>
+      <c r="BV74" s="13"/>
+      <c r="BW74" s="13"/>
+    </row>
+    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="W75" s="34">
+        <v>0</v>
+      </c>
+      <c r="X75" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AI75" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="AJ75">
+        <v>5.5</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>0.22843567000000001</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="W76" s="34">
+        <v>0</v>
+      </c>
+      <c r="X76" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AI76" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="AK76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR76" s="7">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AS76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AK77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR77" s="7">
+        <v>0.45687135000000001</v>
+      </c>
+      <c r="AS77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT77" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="AI78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="57">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <f>1/(1+$J$15)^H79</f>
+        <v>1</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="AI79" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AK79" s="16">
+        <v>5</v>
+      </c>
+      <c r="AL79" s="16">
+        <v>4</v>
+      </c>
+      <c r="AM79" s="16">
+        <v>5</v>
+      </c>
+      <c r="AN79" s="16">
+        <v>20</v>
+      </c>
+      <c r="AO79" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP79" s="16">
+        <v>3</v>
+      </c>
+      <c r="AQ79" s="16">
+        <v>3</v>
+      </c>
+      <c r="AR79" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="16">
+        <v>3</v>
+      </c>
+      <c r="AT79" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <f>1/(1+$J$15)^H80</f>
+        <v>0.95923261390887293</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="AI80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="57">
+        <v>2</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <f t="shared" ref="J81:J88" si="0">1/(1+$J$15)^H81</f>
+        <v>0.92012720758644884</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="AI81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="AK81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="57">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88261602646182147</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="AI82" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="57">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84663407814083602</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="AI83" s="34" cm="1">
+        <f t="array" ref="AI83:AT83">AI81:AT81*AI79:AT79</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AK83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="34">
+        <v>6</v>
+      </c>
+      <c r="AR83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="57">
+        <v>5</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81211901979936307</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI84" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="57">
+        <v>6</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7790110501672548</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="34" cm="1">
+        <f t="array" ref="R85:AG85">MMULT(_xlfn.ANCHORARRAY(AI85),TRANSPOSE(AI18:AT33))</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="T85" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="U85" s="34">
+        <v>1</v>
+      </c>
+      <c r="V85" s="34">
+        <v>0</v>
+      </c>
+      <c r="W85" s="34">
+        <v>0</v>
+      </c>
+      <c r="X85" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="34">
+        <v>6</v>
+      </c>
+      <c r="AG85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="35" cm="1">
+        <f t="array" ref="AI85:AT85">(_xlfn.ANCHORARRAY(AI83)+AI37:AT37)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="AK85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="35">
+        <v>6</v>
+      </c>
+      <c r="AR85" s="41">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="35">
+        <v>1</v>
+      </c>
+      <c r="AT85" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="57">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74725280591583187</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="AI86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="57">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71678926226938311</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="AI87" s="58">
+        <v>25</v>
+      </c>
+      <c r="AJ87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="57">
+        <v>9</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68756763766847306</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="AI88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AI89" s="58">
+        <v>200</v>
+      </c>
+      <c r="AJ89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="58">
+        <v>170</v>
+      </c>
+      <c r="AS89" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AI90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AI91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AI93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AI94" s="34" cm="1">
+        <f t="array" ref="AI94:AT94">_xlfn.ANCHORARRAY(AI85)*AI87:AT87+AI89:AT89*AI91:AT91</f>
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT94" s="34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551BC61-772A-5E45-B601-89C60E5B333D}">
   <dimension ref="A1:BZ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="AP9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6"/>
       <selection pane="topRight" activeCell="I6" sqref="I6"/>
